--- a/notebooks/assets/test/keraspm25_st0_1_nomountains.xlsx
+++ b/notebooks/assets/test/keraspm25_st0_1_nomountains.xlsx
@@ -492,34 +492,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.793</v>
+        <v>1.842</v>
       </c>
       <c r="C2" t="n">
-        <v>1.531</v>
+        <v>1.669</v>
       </c>
       <c r="D2" t="n">
+        <v>1.026</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.515</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.964</v>
       </c>
-      <c r="E2" t="n">
-        <v>2.075</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.496</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.947</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.926</v>
-      </c>
       <c r="J2" t="n">
-        <v>1.628</v>
+        <v>1.566</v>
       </c>
       <c r="K2" t="n">
-        <v>1.259</v>
+        <v>1.359</v>
       </c>
     </row>
     <row r="3">
@@ -529,34 +529,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.38</v>
+        <v>5.185</v>
       </c>
       <c r="C3" t="n">
-        <v>3.454</v>
+        <v>4.531</v>
       </c>
       <c r="D3" t="n">
-        <v>1.498</v>
+        <v>1.594</v>
       </c>
       <c r="E3" t="n">
-        <v>7.133</v>
+        <v>5.522</v>
       </c>
       <c r="F3" t="n">
-        <v>3.526</v>
+        <v>3.695</v>
       </c>
       <c r="G3" t="n">
-        <v>6.68</v>
+        <v>5.509</v>
       </c>
       <c r="H3" t="n">
-        <v>5.257</v>
+        <v>5.415</v>
       </c>
       <c r="I3" t="n">
-        <v>1.4</v>
+        <v>1.602</v>
       </c>
       <c r="J3" t="n">
-        <v>4.549</v>
+        <v>4.226</v>
       </c>
       <c r="K3" t="n">
-        <v>2.839</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="4">
@@ -566,34 +566,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.452</v>
+        <v>0.301</v>
       </c>
       <c r="D4" t="n">
-        <v>0.229</v>
+        <v>0.126</v>
       </c>
       <c r="E4" t="n">
-        <v>0.289</v>
+        <v>0.499</v>
       </c>
       <c r="F4" t="n">
-        <v>0.544</v>
+        <v>0.546</v>
       </c>
       <c r="G4" t="n">
-        <v>0.755</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.383</v>
+        <v>0.366</v>
       </c>
       <c r="I4" t="n">
-        <v>0.394</v>
+        <v>0.329</v>
       </c>
       <c r="J4" t="n">
-        <v>0.552</v>
+        <v>0.594</v>
       </c>
       <c r="K4" t="n">
-        <v>0.499</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="5">
@@ -606,31 +606,31 @@
         <v>7.8</v>
       </c>
       <c r="C5" t="n">
-        <v>6.556</v>
+        <v>6.554</v>
       </c>
       <c r="D5" t="n">
-        <v>2.112</v>
+        <v>2.113</v>
       </c>
       <c r="E5" t="n">
         <v>3.06</v>
       </c>
       <c r="F5" t="n">
-        <v>3.476</v>
+        <v>3.478</v>
       </c>
       <c r="G5" t="n">
-        <v>8.257999999999999</v>
+        <v>8.243</v>
       </c>
       <c r="H5" t="n">
-        <v>7.9</v>
+        <v>7.907</v>
       </c>
       <c r="I5" t="n">
-        <v>1.382</v>
+        <v>1.383</v>
       </c>
       <c r="J5" t="n">
-        <v>3.576</v>
+        <v>3.581</v>
       </c>
       <c r="K5" t="n">
-        <v>3.739</v>
+        <v>3.744</v>
       </c>
     </row>
     <row r="6">
@@ -640,34 +640,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86.21599999999999</v>
+        <v>86.279</v>
       </c>
       <c r="C6" t="n">
-        <v>57.592</v>
+        <v>57.562</v>
       </c>
       <c r="D6" t="n">
-        <v>7.554</v>
+        <v>7.565</v>
       </c>
       <c r="E6" t="n">
         <v>13.266</v>
       </c>
       <c r="F6" t="n">
-        <v>16.576</v>
+        <v>16.591</v>
       </c>
       <c r="G6" t="n">
-        <v>95.65600000000001</v>
+        <v>95.313</v>
       </c>
       <c r="H6" t="n">
-        <v>76.218</v>
+        <v>76.364</v>
       </c>
       <c r="I6" t="n">
-        <v>2.855</v>
+        <v>2.859</v>
       </c>
       <c r="J6" t="n">
-        <v>16.878</v>
+        <v>16.923</v>
       </c>
       <c r="K6" t="n">
-        <v>18.917</v>
+        <v>18.964</v>
       </c>
     </row>
     <row r="7">
@@ -677,34 +677,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.028</v>
+        <v>-2.147</v>
       </c>
       <c r="C7" t="n">
-        <v>-8.5</v>
+        <v>-8.102</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.93</v>
+        <v>-3.386</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.451</v>
+        <v>-0.239</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.13</v>
+        <v>-1.158</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.426</v>
+        <v>-2.281</v>
       </c>
       <c r="H7" t="n">
-        <v>-8.313000000000001</v>
+        <v>-8.212999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.216</v>
+        <v>-0.193</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.502</v>
+        <v>-0.5610000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>-2.536</v>
+        <v>-2.351</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/assets/test/keraspm25_st0_1_nomountains.xlsx
+++ b/notebooks/assets/test/keraspm25_st0_1_nomountains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,31 +459,6 @@
           <t>1007_1014_2021</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>0324_0331_2021</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>0418_0425_2021</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>0717_0724_2021</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>0903_0910_2021</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>1007_1014_2021</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -492,33 +467,18 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.842</v>
+        <v>1.809</v>
       </c>
       <c r="C2" t="n">
-        <v>1.669</v>
+        <v>1.82</v>
       </c>
       <c r="D2" t="n">
-        <v>1.026</v>
+        <v>0.964</v>
       </c>
       <c r="E2" t="n">
-        <v>1.745</v>
+        <v>1.566</v>
       </c>
       <c r="F2" t="n">
-        <v>1.515</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.964</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.566</v>
-      </c>
-      <c r="K2" t="n">
         <v>1.359</v>
       </c>
     </row>
@@ -529,33 +489,18 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.185</v>
+        <v>5.509</v>
       </c>
       <c r="C3" t="n">
-        <v>4.531</v>
+        <v>5.415</v>
       </c>
       <c r="D3" t="n">
-        <v>1.594</v>
+        <v>1.602</v>
       </c>
       <c r="E3" t="n">
-        <v>5.522</v>
+        <v>4.226</v>
       </c>
       <c r="F3" t="n">
-        <v>3.695</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5.509</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5.415</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.602</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.226</v>
-      </c>
-      <c r="K3" t="n">
         <v>3.01</v>
       </c>
     </row>
@@ -566,33 +511,18 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.301</v>
+        <v>0.366</v>
       </c>
       <c r="D4" t="n">
-        <v>0.126</v>
+        <v>0.329</v>
       </c>
       <c r="E4" t="n">
-        <v>0.499</v>
+        <v>0.594</v>
       </c>
       <c r="F4" t="n">
-        <v>0.546</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.8110000000000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.366</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.594</v>
-      </c>
-      <c r="K4" t="n">
         <v>0.496</v>
       </c>
     </row>
@@ -603,33 +533,18 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.8</v>
+        <v>8.243</v>
       </c>
       <c r="C5" t="n">
-        <v>6.554</v>
+        <v>7.907</v>
       </c>
       <c r="D5" t="n">
-        <v>2.113</v>
+        <v>1.383</v>
       </c>
       <c r="E5" t="n">
-        <v>3.06</v>
+        <v>3.581</v>
       </c>
       <c r="F5" t="n">
-        <v>3.478</v>
-      </c>
-      <c r="G5" t="n">
-        <v>8.243</v>
-      </c>
-      <c r="H5" t="n">
-        <v>7.907</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.383</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.581</v>
-      </c>
-      <c r="K5" t="n">
         <v>3.744</v>
       </c>
     </row>
@@ -640,33 +555,18 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86.279</v>
+        <v>95.313</v>
       </c>
       <c r="C6" t="n">
-        <v>57.562</v>
+        <v>76.364</v>
       </c>
       <c r="D6" t="n">
-        <v>7.565</v>
+        <v>2.859</v>
       </c>
       <c r="E6" t="n">
-        <v>13.266</v>
+        <v>16.923</v>
       </c>
       <c r="F6" t="n">
-        <v>16.591</v>
-      </c>
-      <c r="G6" t="n">
-        <v>95.313</v>
-      </c>
-      <c r="H6" t="n">
-        <v>76.364</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.859</v>
-      </c>
-      <c r="J6" t="n">
-        <v>16.923</v>
-      </c>
-      <c r="K6" t="n">
         <v>18.964</v>
       </c>
     </row>
@@ -677,33 +577,18 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.147</v>
+        <v>-2.281</v>
       </c>
       <c r="C7" t="n">
-        <v>-8.102</v>
+        <v>-8.212999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.386</v>
+        <v>-0.193</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.239</v>
+        <v>-0.5610000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.158</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-2.281</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-8.212999999999999</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-0.193</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-0.5610000000000001</v>
-      </c>
-      <c r="K7" t="n">
         <v>-2.351</v>
       </c>
     </row>

--- a/notebooks/assets/test/keraspm25_st0_1_nomountains.xlsx
+++ b/notebooks/assets/test/keraspm25_st0_1_nomountains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,128 +467,172 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.809</v>
+        <v>2.251</v>
       </c>
       <c r="C2" t="n">
-        <v>1.82</v>
+        <v>1.586</v>
       </c>
       <c r="D2" t="n">
-        <v>0.964</v>
+        <v>0.977</v>
       </c>
       <c r="E2" t="n">
-        <v>1.566</v>
+        <v>1.62</v>
       </c>
       <c r="F2" t="n">
-        <v>1.359</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>MSE_sensor</t>
+          <t>RMSE_sensor</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.509</v>
+        <v>2.727</v>
       </c>
       <c r="C3" t="n">
-        <v>5.415</v>
+        <v>1.933</v>
       </c>
       <c r="D3" t="n">
-        <v>1.602</v>
+        <v>1.265</v>
       </c>
       <c r="E3" t="n">
-        <v>4.226</v>
+        <v>2.108</v>
       </c>
       <c r="F3" t="n">
-        <v>3.01</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>R2_sensor</t>
+          <t>MSE_sensor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8110000000000001</v>
+        <v>7.735</v>
       </c>
       <c r="C4" t="n">
-        <v>0.366</v>
+        <v>3.775</v>
       </c>
       <c r="D4" t="n">
-        <v>0.329</v>
+        <v>1.643</v>
       </c>
       <c r="E4" t="n">
-        <v>0.594</v>
+        <v>4.753</v>
       </c>
       <c r="F4" t="n">
-        <v>0.496</v>
+        <v>2.615</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MAE_cams</t>
+          <t>R2_sensor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.243</v>
+        <v>0.721</v>
       </c>
       <c r="C5" t="n">
-        <v>7.907</v>
+        <v>0.541</v>
       </c>
       <c r="D5" t="n">
-        <v>1.383</v>
+        <v>0.307</v>
       </c>
       <c r="E5" t="n">
-        <v>3.581</v>
+        <v>0.592</v>
       </c>
       <c r="F5" t="n">
-        <v>3.744</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MSE_cams</t>
+          <t>MAE_cams</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>95.313</v>
+        <v>8.243</v>
       </c>
       <c r="C6" t="n">
-        <v>76.364</v>
+        <v>7.907</v>
       </c>
       <c r="D6" t="n">
-        <v>2.859</v>
+        <v>1.383</v>
       </c>
       <c r="E6" t="n">
-        <v>16.923</v>
+        <v>3.581</v>
       </c>
       <c r="F6" t="n">
-        <v>18.964</v>
+        <v>3.744</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>RMSE_cams</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9.717000000000001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8.712999999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.677</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.086</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.342</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>MSE_cams</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>95.313</v>
+      </c>
+      <c r="C8" t="n">
+        <v>76.364</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.859</v>
+      </c>
+      <c r="E8" t="n">
+        <v>16.923</v>
+      </c>
+      <c r="F8" t="n">
+        <v>18.964</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>R2_cams</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B9" t="n">
         <v>-2.281</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C9" t="n">
         <v>-8.212999999999999</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D9" t="n">
         <v>-0.193</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E9" t="n">
         <v>-0.5610000000000001</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F9" t="n">
         <v>-2.351</v>
       </c>
     </row>

--- a/notebooks/assets/test/keraspm25_st0_1_nomountains.xlsx
+++ b/notebooks/assets/test/keraspm25_st0_1_nomountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.251</v>
+        <v>1.929</v>
       </c>
       <c r="C2" t="n">
-        <v>1.586</v>
+        <v>1.531</v>
       </c>
       <c r="D2" t="n">
-        <v>0.977</v>
+        <v>0.875</v>
       </c>
       <c r="E2" t="n">
-        <v>1.62</v>
+        <v>1.265</v>
       </c>
       <c r="F2" t="n">
-        <v>1.23</v>
+        <v>1.062</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.727</v>
+        <v>2.458</v>
       </c>
       <c r="C3" t="n">
-        <v>1.933</v>
+        <v>1.865</v>
       </c>
       <c r="D3" t="n">
-        <v>1.265</v>
+        <v>1.133</v>
       </c>
       <c r="E3" t="n">
-        <v>2.108</v>
+        <v>1.599</v>
       </c>
       <c r="F3" t="n">
-        <v>1.59</v>
+        <v>1.374</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.735</v>
+        <v>6.203</v>
       </c>
       <c r="C4" t="n">
-        <v>3.775</v>
+        <v>3.54</v>
       </c>
       <c r="D4" t="n">
-        <v>1.643</v>
+        <v>1.353</v>
       </c>
       <c r="E4" t="n">
-        <v>4.753</v>
+        <v>2.626</v>
       </c>
       <c r="F4" t="n">
-        <v>2.615</v>
+        <v>1.931</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.721</v>
+        <v>0.791</v>
       </c>
       <c r="C5" t="n">
-        <v>0.541</v>
+        <v>0.574</v>
       </c>
       <c r="D5" t="n">
-        <v>0.307</v>
+        <v>0.424</v>
       </c>
       <c r="E5" t="n">
-        <v>0.592</v>
+        <v>0.734</v>
       </c>
       <c r="F5" t="n">
-        <v>0.546</v>
+        <v>0.651</v>
       </c>
     </row>
     <row r="6">

--- a/notebooks/assets/test/keraspm25_st0_1_nomountains.xlsx
+++ b/notebooks/assets/test/keraspm25_st0_1_nomountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.929</v>
+        <v>1.864</v>
       </c>
       <c r="C2" t="n">
-        <v>1.531</v>
+        <v>1.605</v>
       </c>
       <c r="D2" t="n">
-        <v>0.875</v>
+        <v>0.871</v>
       </c>
       <c r="E2" t="n">
-        <v>1.265</v>
+        <v>1.308</v>
       </c>
       <c r="F2" t="n">
-        <v>1.062</v>
+        <v>1.052</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.458</v>
+        <v>2.257</v>
       </c>
       <c r="C3" t="n">
-        <v>1.865</v>
+        <v>1.955</v>
       </c>
       <c r="D3" t="n">
-        <v>1.133</v>
+        <v>1.1</v>
       </c>
       <c r="E3" t="n">
-        <v>1.599</v>
+        <v>1.612</v>
       </c>
       <c r="F3" t="n">
-        <v>1.374</v>
+        <v>1.327</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.203</v>
+        <v>5.188</v>
       </c>
       <c r="C4" t="n">
-        <v>3.54</v>
+        <v>3.894</v>
       </c>
       <c r="D4" t="n">
-        <v>1.353</v>
+        <v>1.279</v>
       </c>
       <c r="E4" t="n">
-        <v>2.626</v>
+        <v>2.696</v>
       </c>
       <c r="F4" t="n">
-        <v>1.931</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.791</v>
+        <v>0.826</v>
       </c>
       <c r="C5" t="n">
-        <v>0.574</v>
+        <v>0.538</v>
       </c>
       <c r="D5" t="n">
-        <v>0.424</v>
+        <v>0.457</v>
       </c>
       <c r="E5" t="n">
-        <v>0.734</v>
+        <v>0.731</v>
       </c>
       <c r="F5" t="n">
-        <v>0.651</v>
+        <v>0.653</v>
       </c>
     </row>
     <row r="6">
